--- a/scripts outputs/Appendices/Table A5/Table A5.2 Two double exponential distributions/RECAP.xlsx
+++ b/scripts outputs/Appendices/Table A5/Table A5.2 Two double exponential distributions/RECAP.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,43 +8,373 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Github projects\studentbackup\scripts outputs\Appendices\Table A5\Table A5.2 Two double exponential distributions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A3AC4B4-62E3-4DA2-972E-FACF0C1B1F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CAD3613-7BFC-4CF1-B572-C7428E1083D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RECAP" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>V1</t>
-  </si>
-  <si>
-    <t>V2</t>
-  </si>
-  <si>
-    <t>V3</t>
-  </si>
-  <si>
-    <t>V4</t>
-  </si>
-  <si>
-    <t>V5</t>
-  </si>
-  <si>
-    <t>V6</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="97">
+  <si>
+    <r>
+      <t xml:space="preserve">Welch’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-test</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Student’s </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>-test</t>
+    </r>
+  </si>
+  <si>
+    <t>SDR</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>n2/n1</t>
+  </si>
+  <si>
+    <t>Theo.</t>
+  </si>
+  <si>
+    <t>22.34</t>
+  </si>
+  <si>
+    <t>12.76</t>
+  </si>
+  <si>
+    <t>8.81</t>
+  </si>
+  <si>
+    <t>7.19</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>13.53</t>
+  </si>
+  <si>
+    <t>Obs.</t>
+  </si>
+  <si>
+    <t>25.93</t>
+  </si>
+  <si>
+    <t>18.51</t>
+  </si>
+  <si>
+    <t>13.07</t>
+  </si>
+  <si>
+    <t>10.07</t>
+  </si>
+  <si>
+    <t>26.79</t>
+  </si>
+  <si>
+    <t>13.21</t>
+  </si>
+  <si>
+    <t>10.28</t>
+  </si>
+  <si>
+    <t>27.09</t>
+  </si>
+  <si>
+    <t>21.42</t>
+  </si>
+  <si>
+    <t>16.01</t>
+  </si>
+  <si>
+    <t>12.39</t>
+  </si>
+  <si>
+    <t>21.68</t>
+  </si>
+  <si>
+    <t>27.66</t>
+  </si>
+  <si>
+    <t>23.13</t>
+  </si>
+  <si>
+    <t>18.12</t>
+  </si>
+  <si>
+    <t>14.27</t>
+  </si>
+  <si>
+    <t>23.86</t>
+  </si>
+  <si>
+    <t>42.2</t>
+  </si>
+  <si>
+    <t>14.35</t>
+  </si>
+  <si>
+    <t>10.51</t>
+  </si>
+  <si>
+    <t>48.85</t>
+  </si>
+  <si>
+    <t>33.79</t>
+  </si>
+  <si>
+    <t>22.58</t>
+  </si>
+  <si>
+    <t>16.18</t>
+  </si>
+  <si>
+    <t>49.58</t>
+  </si>
+  <si>
+    <t>22.71</t>
+  </si>
+  <si>
+    <t>16.4</t>
+  </si>
+  <si>
+    <t>51.27</t>
+  </si>
+  <si>
+    <t>39.42</t>
+  </si>
+  <si>
+    <t>28.34</t>
+  </si>
+  <si>
+    <t>20.79</t>
+  </si>
+  <si>
+    <t>39.66</t>
+  </si>
+  <si>
+    <t>52.52</t>
+  </si>
+  <si>
+    <t>42.86</t>
+  </si>
+  <si>
+    <t>32.53</t>
+  </si>
+  <si>
+    <t>24.56</t>
+  </si>
+  <si>
+    <t>43.48</t>
+  </si>
+  <si>
+    <t>58.94</t>
+  </si>
+  <si>
+    <t>33.28</t>
+  </si>
+  <si>
+    <t>19.97</t>
+  </si>
+  <si>
+    <t>13.89</t>
+  </si>
+  <si>
+    <t>33.96</t>
+  </si>
+  <si>
+    <t>66.79</t>
+  </si>
+  <si>
+    <t>47.79</t>
+  </si>
+  <si>
+    <t>31.96</t>
+  </si>
+  <si>
+    <t>22.36</t>
+  </si>
+  <si>
+    <t>67.32</t>
+  </si>
+  <si>
+    <t>32.09</t>
+  </si>
+  <si>
+    <t>69.58</t>
+  </si>
+  <si>
+    <t>55.12</t>
+  </si>
+  <si>
+    <t>40.11</t>
+  </si>
+  <si>
+    <t>29.16</t>
+  </si>
+  <si>
+    <t>55.31</t>
+  </si>
+  <si>
+    <t>59.45</t>
+  </si>
+  <si>
+    <t>45.88</t>
+  </si>
+  <si>
+    <t>34.62</t>
+  </si>
+  <si>
+    <t>59.94</t>
+  </si>
+  <si>
+    <t>71.87</t>
+  </si>
+  <si>
+    <t>25.58</t>
+  </si>
+  <si>
+    <t>17.31</t>
+  </si>
+  <si>
+    <t>79.41</t>
+  </si>
+  <si>
+    <t>59.81</t>
+  </si>
+  <si>
+    <t>40.89</t>
+  </si>
+  <si>
+    <t>28.49</t>
+  </si>
+  <si>
+    <t>79.77</t>
+  </si>
+  <si>
+    <t>41.01</t>
+  </si>
+  <si>
+    <t>28.71</t>
+  </si>
+  <si>
+    <t>81.95</t>
+  </si>
+  <si>
+    <t>67.77</t>
+  </si>
+  <si>
+    <t>50.82</t>
+  </si>
+  <si>
+    <t>37.25</t>
+  </si>
+  <si>
+    <t>67.92</t>
+  </si>
+  <si>
+    <t>83.21</t>
+  </si>
+  <si>
+    <t>72.25</t>
+  </si>
+  <si>
+    <t>57.54</t>
+  </si>
+  <si>
+    <t>44.08</t>
+  </si>
+  <si>
+    <t>72.61</t>
+  </si>
+  <si>
+    <t>n1</t>
+  </si>
+  <si>
+    <t>nratio</t>
+  </si>
+  <si>
+    <t>welch</t>
+  </si>
+  <si>
+    <t>student</t>
+  </si>
+  <si>
+    <t>yuen</t>
+  </si>
+  <si>
+    <t>Double exponential distributions </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,8 +509,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -360,8 +711,26 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -476,6 +845,263 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="dotted">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="dotted">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -521,8 +1147,125 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="35" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="35" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="35" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="35" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -877,36 +1620,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:S65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:G65"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
+    <row r="1" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>92</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>93</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>94</v>
+      </c>
+      <c r="G1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="15.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -920,16 +1663,31 @@
         <v>0.5</v>
       </c>
       <c r="E2">
-        <v>0.24587000000000001</v>
+        <v>0.20938000000000001</v>
       </c>
       <c r="F2">
-        <v>0.154478</v>
+        <v>0.10829800000000001</v>
       </c>
       <c r="G2">
-        <v>0.25535099999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.150175</v>
+      </c>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+    </row>
+    <row r="3" spans="1:19" ht="15.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -943,16 +1701,45 @@
         <v>0.5</v>
       </c>
       <c r="E3">
-        <v>0.14518</v>
+        <v>0.13792699999999999</v>
       </c>
       <c r="F3">
-        <v>0.153057</v>
+        <v>0.124693</v>
       </c>
       <c r="G3">
-        <v>0.15274099999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.11050699999999999</v>
+      </c>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O3" s="6">
+        <v>2</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -966,16 +1753,33 @@
         <v>0.5</v>
       </c>
       <c r="E4">
-        <v>0.100316</v>
+        <v>9.8551E-2</v>
       </c>
       <c r="F4">
-        <v>0.157332</v>
+        <v>0.13879900000000001</v>
       </c>
       <c r="G4">
-        <v>0.112304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.09</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="9"/>
+      <c r="L4" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="M4" s="34"/>
+      <c r="N4" s="34"/>
+      <c r="O4" s="34"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="34"/>
+      <c r="R4" s="34"/>
+      <c r="S4" s="35"/>
+    </row>
+    <row r="5" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -989,16 +1793,49 @@
         <v>0.5</v>
       </c>
       <c r="E5">
-        <v>7.7648999999999996E-2</v>
+        <v>7.7792E-2</v>
       </c>
       <c r="F5">
-        <v>0.16289300000000001</v>
+        <v>0.15106700000000001</v>
       </c>
       <c r="G5">
-        <v>9.2242000000000005E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+        <v>8.0623E-2</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="P5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="R5" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1012,16 +1849,50 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.29686099999999999</v>
+        <v>0.23886499999999999</v>
       </c>
       <c r="F6">
-        <v>0.31334200000000001</v>
+        <v>0.25755299999999998</v>
       </c>
       <c r="G6">
-        <v>0.34314800000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.17354</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" s="36">
+        <f>$E$2*100</f>
+        <v>20.938000000000002</v>
+      </c>
+      <c r="M6" s="37">
+        <f>$E$3*100</f>
+        <v>13.7927</v>
+      </c>
+      <c r="N6" s="37">
+        <f>$E$4*100</f>
+        <v>9.8551000000000002</v>
+      </c>
+      <c r="O6" s="37">
+        <f>$E$5*100</f>
+        <v>7.7792000000000003</v>
+      </c>
+      <c r="P6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="37">
+        <f>$F$3*100</f>
+        <v>12.4693</v>
+      </c>
+      <c r="R6" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S6" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2</v>
       </c>
@@ -1035,16 +1906,47 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>0.20056299999999999</v>
+        <v>0.18232000000000001</v>
       </c>
       <c r="F7">
-        <v>0.20682800000000001</v>
+        <v>0.186892</v>
       </c>
       <c r="G7">
-        <v>0.22884099999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.14898800000000001</v>
+      </c>
+      <c r="I7" s="10"/>
+      <c r="J7" s="11">
+        <v>1</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="N7" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="O7" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1058,16 +1960,44 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>0.141573</v>
+        <v>0.13674700000000001</v>
       </c>
       <c r="F8">
-        <v>0.14874000000000001</v>
+        <v>0.141376</v>
       </c>
       <c r="G8">
-        <v>0.15923100000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.12124600000000001</v>
+      </c>
+      <c r="I8" s="10"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" s="38">
+        <f>$E$6*100</f>
+        <v>23.886499999999998</v>
+      </c>
+      <c r="M8" s="38">
+        <f>$E$7*100</f>
+        <v>18.231999999999999</v>
+      </c>
+      <c r="N8" s="38">
+        <f>$E$8*100</f>
+        <v>13.674700000000001</v>
+      </c>
+      <c r="O8" s="38">
+        <f>$E$9*100</f>
+        <v>10.691699999999999</v>
+      </c>
+      <c r="P8" s="21"/>
+      <c r="Q8" s="38">
+        <f>$F$7*100</f>
+        <v>18.6892</v>
+      </c>
+      <c r="R8" s="21"/>
+      <c r="S8" s="26"/>
+    </row>
+    <row r="9" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>4</v>
       </c>
@@ -1081,16 +2011,47 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0.10860499999999999</v>
+        <v>0.106917</v>
       </c>
       <c r="F9">
-        <v>0.117586</v>
+        <v>0.114039</v>
       </c>
       <c r="G9">
-        <v>0.120569</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.100435</v>
+      </c>
+      <c r="I9" s="10"/>
+      <c r="J9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="M9" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="O9" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="R9" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>1</v>
       </c>
@@ -1104,16 +2065,50 @@
         <v>1.5</v>
       </c>
       <c r="E10">
-        <v>0.31591000000000002</v>
+        <v>0.248613</v>
       </c>
       <c r="F10">
-        <v>0.41275499999999998</v>
+        <v>0.36243900000000001</v>
       </c>
       <c r="G10">
-        <v>0.37009900000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.17827200000000001</v>
+      </c>
+      <c r="I10" s="10"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" s="38">
+        <f>$E$10*100</f>
+        <v>24.8613</v>
+      </c>
+      <c r="M10" s="38">
+        <f>$E$11*100</f>
+        <v>20.648099999999999</v>
+      </c>
+      <c r="N10" s="38">
+        <f>$E$12*100</f>
+        <v>16.1569</v>
+      </c>
+      <c r="O10" s="38">
+        <f>$E$13*100</f>
+        <v>12.8993</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="38">
+        <f>$F$11*100</f>
+        <v>22.445699999999999</v>
+      </c>
+      <c r="R10" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S10" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>2</v>
       </c>
@@ -1127,16 +2122,47 @@
         <v>1.5</v>
       </c>
       <c r="E11">
-        <v>0.23463899999999999</v>
+        <v>0.206481</v>
       </c>
       <c r="F11">
-        <v>0.23845</v>
+        <v>0.22445699999999999</v>
       </c>
       <c r="G11">
-        <v>0.280221</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.16553399999999999</v>
+      </c>
+      <c r="I11" s="10"/>
+      <c r="J11" s="11">
+        <v>2</v>
+      </c>
+      <c r="K11" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S11" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>3</v>
       </c>
@@ -1150,16 +2176,50 @@
         <v>1.5</v>
       </c>
       <c r="E12">
-        <v>0.17155899999999999</v>
+        <v>0.16156899999999999</v>
       </c>
       <c r="F12">
-        <v>0.14136199999999999</v>
+        <v>0.138159</v>
       </c>
       <c r="G12">
-        <v>0.20318700000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.142655</v>
+      </c>
+      <c r="I12" s="10"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" s="38">
+        <f>$E$14*100</f>
+        <v>25.207400000000003</v>
+      </c>
+      <c r="M12" s="38">
+        <f>$E$15*100</f>
+        <v>21.9849</v>
+      </c>
+      <c r="N12" s="38">
+        <f>$E$16*100</f>
+        <v>17.930499999999999</v>
+      </c>
+      <c r="O12" s="38">
+        <f>$E$17*100</f>
+        <v>14.508599999999999</v>
+      </c>
+      <c r="P12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="38">
+        <f>$F$15*100</f>
+        <v>24.667400000000001</v>
+      </c>
+      <c r="R12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>4</v>
       </c>
@@ -1173,16 +2233,49 @@
         <v>1.5</v>
       </c>
       <c r="E13">
-        <v>0.132359</v>
+        <v>0.128993</v>
       </c>
       <c r="F13">
-        <v>9.3503000000000003E-2</v>
+        <v>9.2751E-2</v>
       </c>
       <c r="G13">
-        <v>0.15429200000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.121295</v>
+      </c>
+      <c r="I13" s="10">
+        <v>20</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L13" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="M13" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="O13" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R13" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1196,16 +2289,50 @@
         <v>2</v>
       </c>
       <c r="E14">
-        <v>0.32661899999999999</v>
+        <v>0.25207400000000002</v>
       </c>
       <c r="F14">
-        <v>0.47739799999999999</v>
+        <v>0.432585</v>
       </c>
       <c r="G14">
-        <v>0.38113599999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.17793300000000001</v>
+      </c>
+      <c r="I14" s="10"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" s="38">
+        <f>$E$18*100</f>
+        <v>41.936199999999999</v>
+      </c>
+      <c r="M14" s="38">
+        <f>$E$19*100</f>
+        <v>25.109399999999997</v>
+      </c>
+      <c r="N14" s="38">
+        <f>$E$20*100</f>
+        <v>16.300700000000003</v>
+      </c>
+      <c r="O14" s="38">
+        <f>$E$21*100</f>
+        <v>11.734400000000001</v>
+      </c>
+      <c r="P14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="38">
+        <f>$F$19*100</f>
+        <v>23.660600000000002</v>
+      </c>
+      <c r="R14" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>2</v>
       </c>
@@ -1219,16 +2346,47 @@
         <v>2</v>
       </c>
       <c r="E15">
-        <v>0.25811699999999999</v>
+        <v>0.21984899999999999</v>
       </c>
       <c r="F15">
-        <v>0.25911499999999998</v>
+        <v>0.246674</v>
       </c>
       <c r="G15">
-        <v>0.31284800000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.17260200000000001</v>
+      </c>
+      <c r="I15" s="10"/>
+      <c r="J15" s="11">
+        <v>1</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="M15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N15" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O15" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="P15" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="R15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="S15" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>3</v>
       </c>
@@ -1242,16 +2400,53 @@
         <v>2</v>
       </c>
       <c r="E16">
-        <v>0.193524</v>
+        <v>0.17930499999999999</v>
       </c>
       <c r="F16">
-        <v>0.13428699999999999</v>
+        <v>0.13406699999999999</v>
       </c>
       <c r="G16">
-        <v>0.23595099999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.15527199999999999</v>
+      </c>
+      <c r="I16" s="10"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" s="38">
+        <f>$E$22*100</f>
+        <v>47.584499999999998</v>
+      </c>
+      <c r="M16" s="38">
+        <f>$E$23*100</f>
+        <v>34.072499999999998</v>
+      </c>
+      <c r="N16" s="38">
+        <f>$E$24*100</f>
+        <v>23.696000000000002</v>
+      </c>
+      <c r="O16" s="38">
+        <f>$E$25*100</f>
+        <v>17.2913</v>
+      </c>
+      <c r="P16" s="38">
+        <f>$F$22*100</f>
+        <v>48.648200000000003</v>
+      </c>
+      <c r="Q16" s="38">
+        <f>$F$23*100</f>
+        <v>34.2316</v>
+      </c>
+      <c r="R16" s="38">
+        <f>$F$24*100</f>
+        <v>23.97</v>
+      </c>
+      <c r="S16" s="38">
+        <f>$F$25*100</f>
+        <v>17.7987</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>4</v>
       </c>
@@ -1265,16 +2460,47 @@
         <v>2</v>
       </c>
       <c r="E17">
-        <v>0.15132399999999999</v>
+        <v>0.14508599999999999</v>
       </c>
       <c r="F17">
-        <v>7.8253000000000003E-2</v>
+        <v>7.7990000000000004E-2</v>
       </c>
       <c r="G17">
-        <v>0.18262200000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.136161</v>
+      </c>
+      <c r="I17" s="10"/>
+      <c r="J17" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L17" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="M17" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="N17" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O17" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="R17" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S17" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1288,16 +2514,50 @@
         <v>0.5</v>
       </c>
       <c r="E18">
-        <v>0.44536199999999998</v>
+        <v>0.41936200000000001</v>
       </c>
       <c r="F18">
-        <v>0.29764800000000002</v>
+        <v>0.25046299999999999</v>
       </c>
       <c r="G18">
-        <v>0.54412400000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.29466599999999998</v>
+      </c>
+      <c r="I18" s="10"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" s="38">
+        <f>$E$26*100</f>
+        <v>49.940300000000001</v>
+      </c>
+      <c r="M18" s="38">
+        <f>$E$27*100</f>
+        <v>39.0122</v>
+      </c>
+      <c r="N18" s="38">
+        <f>$E$28*100</f>
+        <v>28.853899999999999</v>
+      </c>
+      <c r="O18" s="38">
+        <f>$E$29*100</f>
+        <v>21.572800000000001</v>
+      </c>
+      <c r="P18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="38">
+        <f>$F$27*100</f>
+        <v>40.082599999999999</v>
+      </c>
+      <c r="R18" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S18" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>2</v>
       </c>
@@ -1311,16 +2571,47 @@
         <v>0.5</v>
       </c>
       <c r="E19">
-        <v>0.25693500000000002</v>
+        <v>0.25109399999999998</v>
       </c>
       <c r="F19">
-        <v>0.25821499999999997</v>
+        <v>0.23660600000000001</v>
       </c>
       <c r="G19">
-        <v>0.31235800000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.216448</v>
+      </c>
+      <c r="I19" s="10"/>
+      <c r="J19" s="11">
+        <v>2</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L19" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="O19" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="P19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S19" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>3</v>
       </c>
@@ -1334,16 +2625,50 @@
         <v>0.5</v>
       </c>
       <c r="E20">
-        <v>0.16389100000000001</v>
+        <v>0.16300700000000001</v>
       </c>
       <c r="F20">
-        <v>0.231624</v>
+        <v>0.221887</v>
       </c>
       <c r="G20">
-        <v>0.19595899999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.15865699999999999</v>
+      </c>
+      <c r="I20" s="10"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" s="38">
+        <f>$E$30*100</f>
+        <v>51.049500000000002</v>
+      </c>
+      <c r="M20" s="38">
+        <f>$E$31*100</f>
+        <v>42.060900000000004</v>
+      </c>
+      <c r="N20" s="38">
+        <f>$E$32*100</f>
+        <v>32.5578</v>
+      </c>
+      <c r="O20" s="38">
+        <f>$E$33*100</f>
+        <v>24.953500000000002</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="38">
+        <f>$F$31*100</f>
+        <v>43.766500000000001</v>
+      </c>
+      <c r="R20" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S20" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>4</v>
       </c>
@@ -1357,16 +2682,49 @@
         <v>0.5</v>
       </c>
       <c r="E21">
-        <v>0.118214</v>
+        <v>0.117344</v>
       </c>
       <c r="F21">
-        <v>0.21631800000000001</v>
+        <v>0.209844</v>
       </c>
       <c r="G21">
-        <v>0.13756099999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.12307999999999999</v>
+      </c>
+      <c r="I21" s="10">
+        <v>30</v>
+      </c>
+      <c r="J21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="M21" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O21" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="P21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="R21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S21" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1380,16 +2738,50 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.51458000000000004</v>
+        <v>0.47584500000000002</v>
       </c>
       <c r="F22">
-        <v>0.52364999999999995</v>
+        <v>0.48648200000000003</v>
       </c>
       <c r="G22">
-        <v>0.63568100000000005</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.31521300000000002</v>
+      </c>
+      <c r="I22" s="10"/>
+      <c r="J22" s="11"/>
+      <c r="K22" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" s="38">
+        <f>$E$34*100</f>
+        <v>58.812200000000004</v>
+      </c>
+      <c r="M22" s="38">
+        <f>$E$35*100</f>
+        <v>35.2331</v>
+      </c>
+      <c r="N22" s="38">
+        <f>$E$36*100</f>
+        <v>22.0777</v>
+      </c>
+      <c r="O22" s="38">
+        <f>$E$37*100</f>
+        <v>15.484999999999999</v>
+      </c>
+      <c r="P22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="38">
+        <f>$F$35*100</f>
+        <v>34.179200000000002</v>
+      </c>
+      <c r="R22" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>2</v>
       </c>
@@ -1403,16 +2795,47 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.35550799999999999</v>
+        <v>0.340725</v>
       </c>
       <c r="F23">
-        <v>0.35779699999999998</v>
+        <v>0.34231600000000001</v>
       </c>
       <c r="G23">
-        <v>0.45700099999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.27083299999999999</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="11">
+        <v>1</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="P23" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q23" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="R23" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S23" s="24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>3</v>
       </c>
@@ -1426,16 +2849,53 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.241121</v>
+        <v>0.23696</v>
       </c>
       <c r="F24">
-        <v>0.244924</v>
+        <v>0.2397</v>
       </c>
       <c r="G24">
-        <v>0.31101899999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.21851899999999999</v>
+      </c>
+      <c r="I24" s="7"/>
+      <c r="J24" s="8"/>
+      <c r="K24" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L24" s="39">
+        <f>$E$38*100</f>
+        <v>66.356099999999998</v>
+      </c>
+      <c r="M24" s="39">
+        <f>$E$39*100</f>
+        <v>48.066700000000004</v>
+      </c>
+      <c r="N24" s="39">
+        <f>$E$40*100</f>
+        <v>33.042500000000004</v>
+      </c>
+      <c r="O24" s="39">
+        <f>$E$41*100</f>
+        <v>23.524100000000001</v>
+      </c>
+      <c r="P24" s="39">
+        <f>$F$38*100</f>
+        <v>66.969500000000011</v>
+      </c>
+      <c r="Q24" s="39">
+        <f>$F$39*100</f>
+        <v>48.142899999999997</v>
+      </c>
+      <c r="R24" s="39">
+        <f>$F$40*100</f>
+        <v>33.260100000000001</v>
+      </c>
+      <c r="S24" s="39">
+        <f>$F$41*100</f>
+        <v>23.949200000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>4</v>
       </c>
@@ -1449,16 +2909,47 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>0.17478399999999999</v>
+        <v>0.17291300000000001</v>
       </c>
       <c r="F25">
-        <v>0.18043699999999999</v>
+        <v>0.17798700000000001</v>
       </c>
       <c r="G25">
-        <v>0.22203200000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.17516899999999999</v>
+      </c>
+      <c r="I25" s="10"/>
+      <c r="J25" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N25" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="O25" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="P25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="R25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S25" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1472,16 +2963,50 @@
         <v>1.5</v>
       </c>
       <c r="E26">
-        <v>0.54054400000000002</v>
+        <v>0.49940299999999999</v>
       </c>
       <c r="F26">
-        <v>0.63487300000000002</v>
+        <v>0.61094599999999999</v>
       </c>
       <c r="G26">
-        <v>0.66220800000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.32202500000000001</v>
+      </c>
+      <c r="I26" s="10"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L26" s="38">
+        <f>$E$42*100</f>
+        <v>69.093499999999992</v>
+      </c>
+      <c r="M26" s="38">
+        <f>$E$43*100</f>
+        <v>54.993199999999995</v>
+      </c>
+      <c r="N26" s="38">
+        <f>$E$44*100</f>
+        <v>40.580199999999998</v>
+      </c>
+      <c r="O26" s="38">
+        <f>$E$45*100</f>
+        <v>29.891800000000003</v>
+      </c>
+      <c r="P26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="38">
+        <f>$F$43*100</f>
+        <v>55.590899999999998</v>
+      </c>
+      <c r="R26" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>2</v>
       </c>
@@ -1495,16 +3020,47 @@
         <v>1.5</v>
       </c>
       <c r="E27">
-        <v>0.41233999999999998</v>
+        <v>0.39012200000000002</v>
       </c>
       <c r="F27">
-        <v>0.41328700000000002</v>
+        <v>0.40082600000000002</v>
       </c>
       <c r="G27">
-        <v>0.53147599999999995</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.29171399999999997</v>
+      </c>
+      <c r="I27" s="10"/>
+      <c r="J27" s="11">
+        <v>2</v>
+      </c>
+      <c r="K27" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L27" s="23">
+        <v>71</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="N27" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="P27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="R27" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S27" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>3</v>
       </c>
@@ -1518,16 +3074,50 @@
         <v>1.5</v>
       </c>
       <c r="E28">
-        <v>0.29644599999999999</v>
+        <v>0.28853899999999999</v>
       </c>
       <c r="F28">
-        <v>0.24885299999999999</v>
+        <v>0.245334</v>
       </c>
       <c r="G28">
-        <v>0.39152300000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.25133299999999997</v>
+      </c>
+      <c r="I28" s="10"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L28" s="38">
+        <f>$E$46*100</f>
+        <v>70.548599999999993</v>
+      </c>
+      <c r="M28" s="38">
+        <f>$E$47*100</f>
+        <v>59.120700000000006</v>
+      </c>
+      <c r="N28" s="38">
+        <f>$E$48*100</f>
+        <v>45.931100000000001</v>
+      </c>
+      <c r="O28" s="38">
+        <f>$E$49*100</f>
+        <v>35.0276</v>
+      </c>
+      <c r="P28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="38">
+        <f>$F$47*100</f>
+        <v>60.087800000000001</v>
+      </c>
+      <c r="R28" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>4</v>
       </c>
@@ -1541,16 +3131,49 @@
         <v>1.5</v>
       </c>
       <c r="E29">
-        <v>0.21893199999999999</v>
+        <v>0.215728</v>
       </c>
       <c r="F29">
-        <v>0.15774299999999999</v>
+        <v>0.15690399999999999</v>
       </c>
       <c r="G29">
-        <v>0.28788000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.20941599999999999</v>
+      </c>
+      <c r="I29" s="10">
+        <v>40</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="K29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L29" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="N29" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O29" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="P29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="R29" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S29" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1564,16 +3187,50 @@
         <v>2</v>
       </c>
       <c r="E30">
-        <v>0.554894</v>
+        <v>0.51049500000000003</v>
       </c>
       <c r="F30">
-        <v>0.69837000000000005</v>
+        <v>0.68061899999999997</v>
       </c>
       <c r="G30">
-        <v>0.67428500000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.32438899999999998</v>
+      </c>
+      <c r="I30" s="10"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="38">
+        <f>$E$50*100</f>
+        <v>71.879599999999996</v>
+      </c>
+      <c r="M30" s="38">
+        <f>$E$51*100</f>
+        <v>44.579700000000003</v>
+      </c>
+      <c r="N30" s="38">
+        <f>$E$52*100</f>
+        <v>27.747599999999998</v>
+      </c>
+      <c r="O30" s="38">
+        <f>$E$53*100</f>
+        <v>19.0214</v>
+      </c>
+      <c r="P30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="38">
+        <f>$F$51*100</f>
+        <v>43.810500000000005</v>
+      </c>
+      <c r="R30" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S30" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>2</v>
       </c>
@@ -1587,16 +3244,47 @@
         <v>2</v>
       </c>
       <c r="E31">
-        <v>0.44889000000000001</v>
+        <v>0.42060900000000001</v>
       </c>
       <c r="F31">
-        <v>0.44902399999999998</v>
+        <v>0.43766500000000003</v>
       </c>
       <c r="G31">
-        <v>0.57552300000000001</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.30268899999999999</v>
+      </c>
+      <c r="I31" s="10"/>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L31" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O31" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q31" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="R31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>3</v>
       </c>
@@ -1610,16 +3298,53 @@
         <v>2</v>
       </c>
       <c r="E32">
-        <v>0.33849699999999999</v>
+        <v>0.32557799999999998</v>
       </c>
       <c r="F32">
-        <v>0.249809</v>
+        <v>0.24729200000000001</v>
       </c>
       <c r="G32">
-        <v>0.44916600000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.26939400000000002</v>
+      </c>
+      <c r="I32" s="10"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L32" s="38">
+        <f>$E$54*100</f>
+        <v>79.388099999999994</v>
+      </c>
+      <c r="M32" s="38">
+        <f>$E$55*100</f>
+        <v>59.977100000000007</v>
+      </c>
+      <c r="N32" s="38">
+        <f>$E$56*100</f>
+        <v>41.750300000000003</v>
+      </c>
+      <c r="O32" s="38">
+        <f>$E$57*100</f>
+        <v>29.710900000000002</v>
+      </c>
+      <c r="P32" s="38">
+        <f>$F$54*100</f>
+        <v>79.72590000000001</v>
+      </c>
+      <c r="Q32" s="38">
+        <f>$F$55*100</f>
+        <v>60.018899999999995</v>
+      </c>
+      <c r="R32" s="38">
+        <f>$F$56*100</f>
+        <v>41.922699999999999</v>
+      </c>
+      <c r="S32" s="38">
+        <f>$F$57*100</f>
+        <v>30.055700000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>4</v>
       </c>
@@ -1633,16 +3358,47 @@
         <v>2</v>
       </c>
       <c r="E33">
-        <v>0.25574599999999997</v>
+        <v>0.24953500000000001</v>
       </c>
       <c r="F33">
-        <v>0.14191799999999999</v>
+        <v>0.14127400000000001</v>
       </c>
       <c r="G33">
-        <v>0.34221800000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.23275899999999999</v>
+      </c>
+      <c r="I33" s="10"/>
+      <c r="J33" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="K33" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L33" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="N33" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="O33" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="P33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="R33" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S33" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>1</v>
       </c>
@@ -1656,16 +3412,50 @@
         <v>0.5</v>
       </c>
       <c r="E34">
-        <v>0.60224</v>
+        <v>0.58812200000000003</v>
       </c>
       <c r="F34">
-        <v>0.43912299999999999</v>
+        <v>0.40393099999999998</v>
       </c>
       <c r="G34">
-        <v>0.73606099999999997</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.430732</v>
+      </c>
+      <c r="I34" s="10"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L34" s="38">
+        <f>$E$58*100</f>
+        <v>81.9208</v>
+      </c>
+      <c r="M34" s="38">
+        <f>$E$59*100</f>
+        <v>67.668499999999995</v>
+      </c>
+      <c r="N34" s="38">
+        <f>$E$60*100</f>
+        <v>51.2239</v>
+      </c>
+      <c r="O34" s="38">
+        <f>$E$61*100</f>
+        <v>37.909999999999997</v>
+      </c>
+      <c r="P34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="38">
+        <f>$F$59*100</f>
+        <v>67.977000000000004</v>
+      </c>
+      <c r="R34" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="S34" s="22" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>2</v>
       </c>
@@ -1679,16 +3469,47 @@
         <v>0.5</v>
       </c>
       <c r="E35">
-        <v>0.35760500000000001</v>
+        <v>0.35233100000000001</v>
       </c>
       <c r="F35">
-        <v>0.357352</v>
+        <v>0.34179199999999998</v>
       </c>
       <c r="G35">
-        <v>0.454042</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.31775799999999998</v>
+      </c>
+      <c r="I35" s="10"/>
+      <c r="J35" s="11">
+        <v>2</v>
+      </c>
+      <c r="K35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="L35" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="N35" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="O35" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R35" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="S35" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>3</v>
       </c>
@@ -1702,16 +3523,50 @@
         <v>0.5</v>
       </c>
       <c r="E36">
-        <v>0.222165</v>
+        <v>0.220777</v>
       </c>
       <c r="F36">
-        <v>0.298898</v>
+        <v>0.292661</v>
       </c>
       <c r="G36">
-        <v>0.28084799999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.226627</v>
+      </c>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="L36" s="39">
+        <f>$E$62*100</f>
+        <v>83.272800000000004</v>
+      </c>
+      <c r="M36" s="39">
+        <f>$E$63*100</f>
+        <v>72.099400000000003</v>
+      </c>
+      <c r="N36" s="39">
+        <f>$E$64*100</f>
+        <v>57.661099999999998</v>
+      </c>
+      <c r="O36" s="39">
+        <f>$E$65*100</f>
+        <v>44.322899999999997</v>
+      </c>
+      <c r="P36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="39">
+        <f>$F$63*100</f>
+        <v>72.584599999999995</v>
+      </c>
+      <c r="R36" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="S36" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>4</v>
       </c>
@@ -1725,16 +3580,16 @@
         <v>0.5</v>
       </c>
       <c r="E37">
-        <v>0.15512799999999999</v>
+        <v>0.15484999999999999</v>
       </c>
       <c r="F37">
-        <v>0.26286999999999999</v>
+        <v>0.26007400000000003</v>
       </c>
       <c r="G37">
-        <v>0.19123999999999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.169321</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1748,16 +3603,16 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0.67862</v>
+        <v>0.66356099999999996</v>
       </c>
       <c r="F38">
-        <v>0.68407499999999999</v>
+        <v>0.66969500000000004</v>
       </c>
       <c r="G38">
-        <v>0.81381300000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.460619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1771,16 +3626,16 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.490865</v>
+        <v>0.48066700000000001</v>
       </c>
       <c r="F39">
-        <v>0.49199300000000001</v>
+        <v>0.481429</v>
       </c>
       <c r="G39">
-        <v>0.63365800000000005</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.39143</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1794,16 +3649,16 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.333845</v>
+        <v>0.33042500000000002</v>
       </c>
       <c r="F40">
-        <v>0.33656199999999997</v>
+        <v>0.33260099999999998</v>
       </c>
       <c r="G40">
-        <v>0.445019</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.313139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1817,16 +3672,16 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>0.23670099999999999</v>
+        <v>0.23524100000000001</v>
       </c>
       <c r="F41">
-        <v>0.241124</v>
+        <v>0.23949200000000001</v>
       </c>
       <c r="G41">
-        <v>0.31504100000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.24693799999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>1</v>
       </c>
@@ -1840,16 +3695,16 @@
         <v>1.5</v>
       </c>
       <c r="E42">
-        <v>0.70564000000000004</v>
+        <v>0.69093499999999997</v>
       </c>
       <c r="F42">
-        <v>0.782883</v>
+        <v>0.77684600000000004</v>
       </c>
       <c r="G42">
-        <v>0.83444300000000005</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.46828399999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>2</v>
       </c>
@@ -1863,16 +3718,16 @@
         <v>1.5</v>
       </c>
       <c r="E43">
-        <v>0.56371499999999997</v>
+        <v>0.54993199999999998</v>
       </c>
       <c r="F43">
-        <v>0.56468700000000005</v>
+        <v>0.55590899999999999</v>
       </c>
       <c r="G43">
-        <v>0.71488399999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.422039</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>3</v>
       </c>
@@ -1886,16 +3741,16 @@
         <v>1.5</v>
       </c>
       <c r="E44">
-        <v>0.41231099999999998</v>
+        <v>0.405802</v>
       </c>
       <c r="F44">
-        <v>0.35502899999999998</v>
+        <v>0.351968</v>
       </c>
       <c r="G44">
-        <v>0.54965399999999998</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.35975299999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1909,16 +3764,16 @@
         <v>1.5</v>
       </c>
       <c r="E45">
-        <v>0.30184899999999998</v>
+        <v>0.29891800000000002</v>
       </c>
       <c r="F45">
-        <v>0.22512399999999999</v>
+        <v>0.22441900000000001</v>
       </c>
       <c r="G45">
-        <v>0.410053</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.29722999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1932,16 +3787,16 @@
         <v>2</v>
       </c>
       <c r="E46">
-        <v>0.71960199999999996</v>
+        <v>0.70548599999999995</v>
       </c>
       <c r="F46">
-        <v>0.83249300000000004</v>
+        <v>0.83089100000000005</v>
       </c>
       <c r="G46">
-        <v>0.84487699999999999</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.47284700000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>2</v>
       </c>
@@ -1955,16 +3810,16 @@
         <v>2</v>
       </c>
       <c r="E47">
-        <v>0.60587899999999995</v>
+        <v>0.59120700000000004</v>
       </c>
       <c r="F47">
-        <v>0.60766900000000001</v>
+        <v>0.60087800000000002</v>
       </c>
       <c r="G47">
-        <v>0.75634800000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.43787799999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>3</v>
       </c>
@@ -1978,13 +3833,13 @@
         <v>2</v>
       </c>
       <c r="E48">
-        <v>0.46825699999999998</v>
+        <v>0.45931100000000002</v>
       </c>
       <c r="F48">
-        <v>0.36649999999999999</v>
+        <v>0.36318800000000001</v>
       </c>
       <c r="G48">
-        <v>0.61919599999999997</v>
+        <v>0.386044</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.35">
@@ -2001,13 +3856,13 @@
         <v>2</v>
       </c>
       <c r="E49">
-        <v>0.35457499999999997</v>
+        <v>0.35027599999999998</v>
       </c>
       <c r="F49">
-        <v>0.21277299999999999</v>
+        <v>0.21201600000000001</v>
       </c>
       <c r="G49">
-        <v>0.48258600000000001</v>
+        <v>0.33106400000000002</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
@@ -2024,13 +3879,13 @@
         <v>0.5</v>
       </c>
       <c r="E50">
-        <v>0.72393099999999999</v>
+        <v>0.71879599999999999</v>
       </c>
       <c r="F50">
-        <v>0.56835999999999998</v>
+        <v>0.54751499999999997</v>
       </c>
       <c r="G50">
-        <v>0.85497999999999996</v>
+        <v>0.55331200000000003</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
@@ -2047,13 +3902,13 @@
         <v>0.5</v>
       </c>
       <c r="E51">
-        <v>0.44943899999999998</v>
+        <v>0.445797</v>
       </c>
       <c r="F51">
-        <v>0.44930599999999998</v>
+        <v>0.43810500000000002</v>
       </c>
       <c r="G51">
-        <v>0.57558299999999996</v>
+        <v>0.41160000000000002</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
@@ -2070,13 +3925,13 @@
         <v>0.5</v>
       </c>
       <c r="E52">
-        <v>0.27780500000000002</v>
+        <v>0.277476</v>
       </c>
       <c r="F52">
-        <v>0.36219499999999999</v>
+        <v>0.35819000000000001</v>
       </c>
       <c r="G52">
-        <v>0.36190600000000001</v>
+        <v>0.29239300000000001</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
@@ -2093,13 +3948,13 @@
         <v>0.5</v>
       </c>
       <c r="E53">
-        <v>0.19039900000000001</v>
+        <v>0.19021399999999999</v>
       </c>
       <c r="F53">
-        <v>0.30696299999999999</v>
+        <v>0.30504700000000001</v>
       </c>
       <c r="G53">
-        <v>0.244031</v>
+        <v>0.21321100000000001</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
@@ -2116,13 +3971,13 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>0.79574400000000001</v>
+        <v>0.79388099999999995</v>
       </c>
       <c r="F54">
-        <v>0.79900899999999997</v>
+        <v>0.79725900000000005</v>
       </c>
       <c r="G54">
-        <v>0.91061599999999998</v>
+        <v>0.58701599999999998</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
@@ -2139,13 +3994,13 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.60536400000000001</v>
+        <v>0.59977100000000005</v>
       </c>
       <c r="F55">
-        <v>0.60602100000000003</v>
+        <v>0.60018899999999997</v>
       </c>
       <c r="G55">
-        <v>0.76167600000000002</v>
+        <v>0.50210500000000002</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
@@ -2162,13 +4017,13 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.42108000000000001</v>
+        <v>0.41750300000000001</v>
       </c>
       <c r="F56">
-        <v>0.42313299999999998</v>
+        <v>0.41922700000000002</v>
       </c>
       <c r="G56">
-        <v>0.56227000000000005</v>
+        <v>0.40276400000000001</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
@@ -2185,13 +4040,13 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>0.29763200000000001</v>
+        <v>0.29710900000000001</v>
       </c>
       <c r="F57">
-        <v>0.30141600000000002</v>
+        <v>0.30055700000000002</v>
       </c>
       <c r="G57">
-        <v>0.40370699999999998</v>
+        <v>0.31705800000000001</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
@@ -2208,13 +4063,13 @@
         <v>1.5</v>
       </c>
       <c r="E58">
-        <v>0.81972800000000001</v>
+        <v>0.81920800000000005</v>
       </c>
       <c r="F58">
-        <v>0.87574300000000005</v>
+        <v>0.87809099999999995</v>
       </c>
       <c r="G58">
-        <v>0.92526799999999998</v>
+        <v>0.59819100000000003</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
@@ -2231,13 +4086,13 @@
         <v>1.5</v>
       </c>
       <c r="E59">
-        <v>0.68282500000000002</v>
+        <v>0.67668499999999998</v>
       </c>
       <c r="F59">
-        <v>0.68369100000000005</v>
+        <v>0.67976999999999999</v>
       </c>
       <c r="G59">
-        <v>0.83350299999999999</v>
+        <v>0.53858499999999998</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
@@ -2254,13 +4109,13 @@
         <v>1.5</v>
       </c>
       <c r="E60">
-        <v>0.51628399999999997</v>
+        <v>0.512239</v>
       </c>
       <c r="F60">
-        <v>0.45555299999999999</v>
+        <v>0.45354899999999998</v>
       </c>
       <c r="G60">
-        <v>0.67714700000000005</v>
+        <v>0.46010800000000002</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
@@ -2277,13 +4132,13 @@
         <v>1.5</v>
       </c>
       <c r="E61">
-        <v>0.38090800000000002</v>
+        <v>0.37909999999999999</v>
       </c>
       <c r="F61">
-        <v>0.29380000000000001</v>
+        <v>0.29341499999999998</v>
       </c>
       <c r="G61">
-        <v>0.51896500000000001</v>
+        <v>0.38067800000000002</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
@@ -2300,13 +4155,13 @@
         <v>2</v>
       </c>
       <c r="E62">
-        <v>0.83165800000000001</v>
+        <v>0.83272800000000002</v>
       </c>
       <c r="F62">
-        <v>0.91072200000000003</v>
+        <v>0.91422499999999995</v>
       </c>
       <c r="G62">
-        <v>0.93154700000000001</v>
+        <v>0.60372400000000004</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.35">
@@ -2323,13 +4178,13 @@
         <v>2</v>
       </c>
       <c r="E63">
-        <v>0.72632200000000002</v>
+        <v>0.72099400000000002</v>
       </c>
       <c r="F63">
-        <v>0.728931</v>
+        <v>0.72584599999999999</v>
       </c>
       <c r="G63">
-        <v>0.86760499999999996</v>
+        <v>0.55791400000000002</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.35">
@@ -2346,13 +4201,13 @@
         <v>2</v>
       </c>
       <c r="E64">
-        <v>0.58056399999999997</v>
+        <v>0.57661099999999998</v>
       </c>
       <c r="F64">
-        <v>0.47554099999999999</v>
+        <v>0.474605</v>
       </c>
       <c r="G64">
-        <v>0.74562700000000004</v>
+        <v>0.494529</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.35">
@@ -2369,16 +4224,22 @@
         <v>2</v>
       </c>
       <c r="E65">
-        <v>0.44865899999999997</v>
+        <v>0.44322899999999998</v>
       </c>
       <c r="F65">
-        <v>0.288358</v>
+        <v>0.28631400000000001</v>
       </c>
       <c r="G65">
-        <v>0.604159</v>
+        <v>0.42328399999999999</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="L4:S4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>